--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561789.1940403919</v>
+        <v>558914.9981739306</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8450425.812077072</v>
+        <v>8444421.381715726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673418</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12182622.13991585</v>
+        <v>12182949.512333</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>351.4907066044592</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>249.8407009558468</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>229.5889480231532</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>211.182961130578</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>137.6863886982194</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.7025476026978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,10 +1190,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>233.1058066165182</v>
+        <v>195.2026164713296</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2114886365809</v>
+        <v>82.92375604299549</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>107.6507174108354</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.18870648718767</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,7 +1582,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>293.0707200099807</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9208045182004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,13 +2059,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>105.2362592571644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.635366662023</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>248.580666350171</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.22799243903709</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492261</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>79.54367350501148</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0465549525632</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.6449224468275</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I26" t="n">
-        <v>7.836911326852118</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.2448094416378</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0869103964728</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9251583028307</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5312115590949</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.0744927441157</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I27" t="n">
-        <v>2.695191437243878</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.4458279747586</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8291635624429</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7563619754409</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>58.12906103896016</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.2807128537749</v>
+        <v>68.88685469041378</v>
       </c>
       <c r="S28" t="n">
-        <v>182.9275756493161</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1904252175624</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0465549525632</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.6449224468276</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I29" t="n">
-        <v>7.836911326852572</v>
+        <v>7.081331206015648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.24480944163807</v>
+        <v>88.79820333299216</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0869103964729</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9251583028307</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5312115590949</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.07449274411576</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I30" t="n">
-        <v>2.695191437244105</v>
+        <v>2.334151821526078</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.4458279747587</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8291635624429</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7563619754409</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>31.85322878722889</v>
       </c>
       <c r="C31" t="n">
-        <v>97.24917295252959</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6332368114362</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.28071285377514</v>
+        <v>70.8854232942676</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1904252175624</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0465549525632</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.6449224468276</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I32" t="n">
-        <v>7.836911326852572</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.24480944163807</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0869103964729</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9251583028307</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5312115590949</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.07449274411576</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I33" t="n">
-        <v>2.695191437244105</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.4458279747587</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8291635624429</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7563619754409</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>163.0667421231302</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>94.46575099649614</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8715985455489</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1904252175624</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>83.0773672326561</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>75.70303989011518</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>84.56702400647588</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>175.2324354739161</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,16 +3746,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>4.467215483527034</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>23.10998325717265</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>152.0854776630165</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>137.6096244814032</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2014.845473570639</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1641.379715309559</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.240383333747</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4507,25 +4507,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1578.435103297744</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.435103297744</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1578.435103297744</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
         <v>395.0611058457707</v>
@@ -4796,58 +4796,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1934.263538435114</v>
+        <v>1520.337903526926</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.797780174034</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>137.7043515607639</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714563</v>
+        <v>137.7043515607639</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.184671586539</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.222154646128</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.956456039378</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.168203441134</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.1822986515267</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1098484965232</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5262481052905</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8141293241378</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6335030139842</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.152318667339</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M11" t="n">
-        <v>2628.702621497167</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3194.425022238847</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>4074.389672568302</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4469.16403892548</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.450400681162</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4776.467467237964</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.72936884318</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.751621227402</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.221144501238</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.158257157667</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.389601887553</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.923843626473</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.784511650661</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5610873936839</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1080581125569</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.1736484513058</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9361934458502</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4016354727353</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0385353053539</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5366409432213</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2066188353766</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.4708178157238</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.1689781283893</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.445303350705</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.968346905159</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.929626323214</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.429217799317</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.070775445917</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.926422038432</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.488535531912</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.845535209768</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.777688344183</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.625580112441</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.388223384239</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.536723178706</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.776424413752</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.4493727521825</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4493727521825</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4493727521825</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4493727521825</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4493727521825</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7465361269015</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6519817916949</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6391647405713</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.1989631890674</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.356008788616</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.764385494481</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.093984414895</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.701484848554</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.311781001069</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.481323758597</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.795439585423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.028824154949</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.028824154949</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.344335949062</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9271659121011</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X13" t="n">
-        <v>680.9376150140838</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y13" t="n">
-        <v>460.1450358705537</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2372.632101508419</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2003.669584568007</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.403885961257</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1259.615633363013</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>848.6297285734057</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>433.5572784184024</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5262481052906</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8141293241378</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.537461459437</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.056277112792</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.588181784717</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N14" t="n">
-        <v>3484.340454011363</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O14" t="n">
-        <v>3987.3129248907</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P14" t="n">
-        <v>4404.104783251227</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4652.391145006909</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4776.467467237964</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4666.176798765059</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4460.199051149281</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4206.668574423117</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3875.605687079546</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3522.837031809432</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3149.371273548352</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2759.231941572541</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5610873936844</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1080581125574</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.1736484513062</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9361934458507</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4016354727357</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0385353053541</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5366409432218</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2066188353766</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.4708178157238</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.168978128389</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.445303350705</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.968346905159</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.929626323215</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.429217799317</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.070775445917</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.926422038433</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.488535531912</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.845535209768</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.777688344184</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.625580112441</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.388223384239</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.536723178706</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.776424413752</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>578.3855556800895</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4493727521826</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4493727521826</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4493727521826</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4493727521826</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7465361269015</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.52934934475928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6519817916948</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6391647405712</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.1989631890673</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.356008788616</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.764385494481</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.093984414894</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.701484848553</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.311781001068</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.311781001068</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.625896827894</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.625896827894</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.523029953538</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.838541747651</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4213717106904</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>931.4213717106904</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.6287925671603</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M17" t="n">
-        <v>2782.232616025903</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N17" t="n">
-        <v>3329.011433084685</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O17" t="n">
-        <v>3831.983903964022</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4226.7582703212</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.7441371531725</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>539.8079542252656</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,7 +5671,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442064</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1339.17473202496</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.17473202496</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.185181126942</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>890.3926019834122</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427196</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620957</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N20" t="n">
-        <v>2985.817436667297</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996752</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5780,22 +5780,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468568</v>
@@ -5829,19 +5829,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,13 +5868,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,22 +5908,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927028</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5941,19 +5941,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.7880996267</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897393</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X22" t="n">
-        <v>949.9992200553586</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>729.2066409118285</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.001976422504</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>491.7343098287685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>322.7981269008616</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783395</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>391.8664332433616</v>
       </c>
       <c r="Y25" t="n">
-        <v>673.3827746590082</v>
+        <v>171.0738540998314</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.808284537658</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.845767597247</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.580068990497</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.791816392253</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.8059116026454</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G26" t="n">
-        <v>390.6174722566219</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H26" t="n">
-        <v>102.0872475628566</v>
+        <v>101.2929105653993</v>
       </c>
       <c r="I26" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J26" t="n">
-        <v>523.9921845768517</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K26" t="n">
-        <v>968.0233033596407</v>
+        <v>804.7014151994154</v>
       </c>
       <c r="L26" t="n">
-        <v>1555.78493198499</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M26" t="n">
-        <v>2241.452430816294</v>
+        <v>2084.599393525236</v>
       </c>
       <c r="N26" t="n">
-        <v>2942.828555000821</v>
+        <v>2789.43759797465</v>
       </c>
       <c r="O26" t="n">
-        <v>3591.782879135494</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P26" t="n">
-        <v>4111.149379836562</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q26" t="n">
-        <v>4595.116517095335</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.558775776541</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.41250361327</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T26" t="n">
-        <v>4416.304513313803</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.844757452357</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.781870108786</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3479.013214838672</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.547456577592</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.40812460178</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.8769867702721</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C27" t="n">
-        <v>773.4239574891451</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D27" t="n">
-        <v>624.4895478278938</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E27" t="n">
-        <v>465.2520928224383</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F27" t="n">
-        <v>318.7175348493233</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G27" t="n">
-        <v>182.8274221633688</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H27" t="n">
-        <v>96.89359110870646</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I27" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J27" t="n">
-        <v>231.6461192737507</v>
+        <v>232.5958076174676</v>
       </c>
       <c r="K27" t="n">
-        <v>231.6461192737507</v>
+        <v>547.3935737179993</v>
       </c>
       <c r="L27" t="n">
-        <v>698.9990247058471</v>
+        <v>1017.00055985256</v>
       </c>
       <c r="M27" t="n">
-        <v>1263.734689904923</v>
+        <v>1017.00055985256</v>
       </c>
       <c r="N27" t="n">
-        <v>1857.825872654149</v>
+        <v>1387.61124389376</v>
       </c>
       <c r="O27" t="n">
-        <v>1916.039768010332</v>
+        <v>1911.338811047606</v>
       </c>
       <c r="P27" t="n">
-        <v>2315.061858082734</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q27" t="n">
-        <v>2531.878361733897</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.5191973295</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.866845839845</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2249.130316988893</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2021.093587720771</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.941479489028</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.704122760827</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.852622555294</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1116.09232379034</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>619.8533147098435</v>
+        <v>410.9893272716427</v>
       </c>
       <c r="C28" t="n">
-        <v>450.9171317819366</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="D28" t="n">
-        <v>300.8004923696008</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="E28" t="n">
-        <v>152.8873987872078</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F28" t="n">
-        <v>152.8873987872078</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G28" t="n">
-        <v>152.8873987872078</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H28" t="n">
-        <v>152.8873987872078</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I28" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J28" t="n">
-        <v>166.7710612937723</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K28" t="n">
-        <v>415.9118121446791</v>
+        <v>417.5071952352226</v>
       </c>
       <c r="L28" t="n">
-        <v>790.2526316784495</v>
+        <v>793.1419734834329</v>
       </c>
       <c r="M28" t="n">
-        <v>1195.331662515456</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N28" t="n">
-        <v>1596.213435817164</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O28" t="n">
-        <v>1950.476342542019</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P28" t="n">
-        <v>2230.088777824552</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q28" t="n">
-        <v>2340.242854410995</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R28" t="n">
-        <v>2268.242134356678</v>
+        <v>2279.25728575741</v>
       </c>
       <c r="S28" t="n">
-        <v>2083.466805417976</v>
+        <v>2094.636713051797</v>
       </c>
       <c r="T28" t="n">
-        <v>2083.466805417976</v>
+        <v>1874.602333609718</v>
       </c>
       <c r="U28" t="n">
-        <v>1794.385567824478</v>
+        <v>1585.521580386277</v>
       </c>
       <c r="V28" t="n">
-        <v>1539.701079618591</v>
+        <v>1330.83709218039</v>
       </c>
       <c r="W28" t="n">
-        <v>1250.283909581631</v>
+        <v>1041.41992214343</v>
       </c>
       <c r="X28" t="n">
-        <v>1022.294358683613</v>
+        <v>813.4303712454125</v>
       </c>
       <c r="Y28" t="n">
-        <v>801.5017795400832</v>
+        <v>592.6377921018824</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.808284537658</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.845767597246</v>
+        <v>1958.828890955677</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.580068990496</v>
+        <v>1600.563192348927</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.791816392252</v>
+        <v>1214.774939750683</v>
       </c>
       <c r="F29" t="n">
-        <v>804.8059116026448</v>
+        <v>803.7890349610752</v>
       </c>
       <c r="G29" t="n">
-        <v>390.617472256622</v>
+        <v>389.6203923141831</v>
       </c>
       <c r="H29" t="n">
-        <v>102.0872475628567</v>
+        <v>101.2929105653988</v>
       </c>
       <c r="I29" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>356.5865355564977</v>
+        <v>358.202194515378</v>
       </c>
       <c r="K29" t="n">
-        <v>800.6176543392852</v>
+        <v>804.7014151994158</v>
       </c>
       <c r="L29" t="n">
-        <v>1388.379282964633</v>
+        <v>1680.10356416385</v>
       </c>
       <c r="M29" t="n">
-        <v>2318.510446519629</v>
+        <v>2369.178015211323</v>
       </c>
       <c r="N29" t="n">
-        <v>3019.886570704154</v>
+        <v>3074.016219660737</v>
       </c>
       <c r="O29" t="n">
-        <v>3668.840894838825</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P29" t="n">
-        <v>4188.207395539891</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4530.057261421083</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.558775776541</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.41250361327</v>
+        <v>4617.307383185322</v>
       </c>
       <c r="T29" t="n">
-        <v>4416.304513313802</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.844757452356</v>
+        <v>4161.827880810787</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.781870108785</v>
+        <v>3830.764993467216</v>
       </c>
       <c r="W29" t="n">
-        <v>3479.013214838671</v>
+        <v>3477.996338197102</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.547456577591</v>
+        <v>3104.530579936022</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.408124601779</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.8769867702723</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C30" t="n">
-        <v>773.4239574891453</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D30" t="n">
-        <v>624.4895478278941</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E30" t="n">
-        <v>465.2520928224386</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F30" t="n">
-        <v>318.7175348493236</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G30" t="n">
-        <v>182.8274221633691</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H30" t="n">
-        <v>96.89359110870669</v>
+        <v>96.49777987399524</v>
       </c>
       <c r="I30" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>231.6461192737501</v>
+        <v>232.5958076174677</v>
       </c>
       <c r="K30" t="n">
-        <v>544.7675195683491</v>
+        <v>547.3935737179995</v>
       </c>
       <c r="L30" t="n">
-        <v>1012.120425000444</v>
+        <v>1017.000559852561</v>
       </c>
       <c r="M30" t="n">
-        <v>1199.713103450177</v>
+        <v>1584.366630913295</v>
       </c>
       <c r="N30" t="n">
-        <v>1793.8042861994</v>
+        <v>2181.157838540321</v>
       </c>
       <c r="O30" t="n">
-        <v>2315.061858082735</v>
+        <v>2181.157838540321</v>
       </c>
       <c r="P30" t="n">
-        <v>2315.061858082735</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q30" t="n">
-        <v>2531.878361733898</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.519197329501</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.866845839846</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2249.130316988893</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2021.093587720771</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.941479489029</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.704122760827</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.852622555294</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1116.09232379034</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>804.6286436485398</v>
+        <v>558.4440573634156</v>
       </c>
       <c r="C31" t="n">
-        <v>706.3971558177017</v>
+        <v>558.4440573634156</v>
       </c>
       <c r="D31" t="n">
-        <v>556.2805164053659</v>
+        <v>408.3274179510799</v>
       </c>
       <c r="E31" t="n">
-        <v>408.3674228229728</v>
+        <v>408.3274179510799</v>
       </c>
       <c r="F31" t="n">
-        <v>261.4774753250624</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="G31" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H31" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I31" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.7710612937719</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K31" t="n">
-        <v>415.911812144678</v>
+        <v>417.5071952352227</v>
       </c>
       <c r="L31" t="n">
-        <v>790.2526316784476</v>
+        <v>793.1419734834328</v>
       </c>
       <c r="M31" t="n">
-        <v>1195.331662515453</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N31" t="n">
-        <v>1596.213435817161</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O31" t="n">
-        <v>1950.476342542016</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P31" t="n">
-        <v>2230.088777824548</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q31" t="n">
-        <v>2340.242854410991</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R31" t="n">
-        <v>2268.242134356672</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S31" t="n">
-        <v>2268.242134356672</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T31" t="n">
-        <v>2268.242134356672</v>
+        <v>1872.58357744421</v>
       </c>
       <c r="U31" t="n">
-        <v>1979.160896763175</v>
+        <v>1583.502824220769</v>
       </c>
       <c r="V31" t="n">
-        <v>1724.476408557288</v>
+        <v>1328.818336014882</v>
       </c>
       <c r="W31" t="n">
-        <v>1435.059238520327</v>
+        <v>1039.401165977922</v>
       </c>
       <c r="X31" t="n">
-        <v>1207.06968762231</v>
+        <v>811.4116150799042</v>
       </c>
       <c r="Y31" t="n">
-        <v>986.2771084787795</v>
+        <v>590.6190359363741</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.808284537658</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.845767597246</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.580068990496</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.791816392252</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.8059116026443</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G32" t="n">
-        <v>390.6174722566211</v>
+        <v>389.6203923141831</v>
       </c>
       <c r="H32" t="n">
-        <v>102.0872475628567</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I32" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J32" t="n">
-        <v>356.5865355564977</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K32" t="n">
-        <v>800.6176543392852</v>
+        <v>879.0881961321976</v>
       </c>
       <c r="L32" t="n">
-        <v>1697.902203362579</v>
+        <v>1469.911723410545</v>
       </c>
       <c r="M32" t="n">
-        <v>2383.569702193881</v>
+        <v>2158.986174458018</v>
       </c>
       <c r="N32" t="n">
-        <v>3084.945826378406</v>
+        <v>2863.824378907432</v>
       </c>
       <c r="O32" t="n">
-        <v>3733.900150513077</v>
+        <v>3516.0478472632</v>
       </c>
       <c r="P32" t="n">
-        <v>4253.266651214143</v>
+        <v>4038.204486922646</v>
       </c>
       <c r="Q32" t="n">
-        <v>4595.116517095335</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.558775776541</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.412503613269</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4416.304513313802</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.844757452356</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.781870108785</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3479.013214838671</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.547456577591</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.408124601779</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.8769867702723</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C33" t="n">
-        <v>773.4239574891453</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D33" t="n">
-        <v>624.4895478278941</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E33" t="n">
-        <v>465.2520928224386</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F33" t="n">
-        <v>318.7175348493236</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G33" t="n">
-        <v>182.8274221633691</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H33" t="n">
-        <v>96.89359110870669</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I33" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J33" t="n">
-        <v>231.6461192737501</v>
+        <v>232.5958076174676</v>
       </c>
       <c r="K33" t="n">
-        <v>544.7675195683491</v>
+        <v>547.3935737179993</v>
       </c>
       <c r="L33" t="n">
-        <v>1012.120425000444</v>
+        <v>1017.00055985256</v>
       </c>
       <c r="M33" t="n">
-        <v>1576.856090199519</v>
+        <v>1409.966193476583</v>
       </c>
       <c r="N33" t="n">
-        <v>2170.947272948742</v>
+        <v>2006.757401103608</v>
       </c>
       <c r="O33" t="n">
-        <v>2531.878361733898</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="P33" t="n">
-        <v>2531.878361733898</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="Q33" t="n">
-        <v>2531.878361733898</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.519197329501</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.866845839846</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2249.130316988893</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2021.093587720771</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.941479489029</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.704122760827</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.852622555294</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1116.09232379034</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>656.5570419396779</v>
+        <v>408.9705711061331</v>
       </c>
       <c r="C34" t="n">
-        <v>487.620859011771</v>
+        <v>244.2566901736784</v>
       </c>
       <c r="D34" t="n">
-        <v>337.5042195994351</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="E34" t="n">
-        <v>189.5911260170421</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F34" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G34" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H34" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I34" t="n">
-        <v>94.17117551553082</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J34" t="n">
-        <v>166.7710612937719</v>
+        <v>167.3552671573045</v>
       </c>
       <c r="K34" t="n">
-        <v>415.911812144678</v>
+        <v>417.5071952352226</v>
       </c>
       <c r="L34" t="n">
-        <v>790.2526316784476</v>
+        <v>793.1419734834329</v>
       </c>
       <c r="M34" t="n">
-        <v>1195.331662515453</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N34" t="n">
-        <v>1596.213435817161</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O34" t="n">
-        <v>1950.476342542016</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P34" t="n">
-        <v>2230.088777824548</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q34" t="n">
-        <v>2340.242854410991</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R34" t="n">
-        <v>2340.242854410991</v>
+        <v>2277.2385295919</v>
       </c>
       <c r="S34" t="n">
-        <v>2340.242854410991</v>
+        <v>2092.617956886287</v>
       </c>
       <c r="T34" t="n">
-        <v>2120.17053264781</v>
+        <v>1872.583577444208</v>
       </c>
       <c r="U34" t="n">
-        <v>1831.089295054313</v>
+        <v>1583.502824220768</v>
       </c>
       <c r="V34" t="n">
-        <v>1576.404806848426</v>
+        <v>1328.818336014881</v>
       </c>
       <c r="W34" t="n">
-        <v>1286.987636811465</v>
+        <v>1039.40116597792</v>
       </c>
       <c r="X34" t="n">
-        <v>1058.998085913448</v>
+        <v>811.411615079903</v>
       </c>
       <c r="Y34" t="n">
-        <v>838.2055067699176</v>
+        <v>590.6190359363728</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160706</v>
@@ -6935,7 +6935,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507205</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K35" t="n">
         <v>893.7741287891952</v>
@@ -7014,28 +7014,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L36" t="n">
-        <v>584.580680995359</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M36" t="n">
-        <v>929.9301936362467</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.026157035584</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O36" t="n">
-        <v>2098.902632035779</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P36" t="n">
-        <v>2518.486150461856</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476024</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476023</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6513892319103</v>
+        <v>344.9790755352667</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7382956495173</v>
+        <v>344.9790755352667</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
         <v>93.84834815160703</v>
@@ -7102,13 +7102,13 @@
         <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.45060813932</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
         <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P37" t="n">
         <v>2311.699365782261</v>
@@ -7123,22 +7123,22 @@
         <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.70418174751</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062237</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.94347985635</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213722</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778421</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127623</v>
       </c>
       <c r="H38" t="n">
+        <v>93.84834815160693</v>
+      </c>
+      <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
-      <c r="I38" t="n">
-        <v>93.84834815160725</v>
-      </c>
       <c r="J38" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507203</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384025</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944178</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883216</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O38" t="n">
         <v>3654.445485610256</v>
@@ -7248,25 +7248,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612972</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>94.88738072612972</v>
+        <v>241.4963299034532</v>
       </c>
       <c r="K39" t="n">
-        <v>94.88738072612972</v>
+        <v>572.0050724668122</v>
       </c>
       <c r="L39" t="n">
-        <v>562.2602880588585</v>
+        <v>1062.737405310564</v>
       </c>
       <c r="M39" t="n">
-        <v>1154.278642310987</v>
+        <v>1062.737405310564</v>
       </c>
       <c r="N39" t="n">
-        <v>1776.374605710324</v>
+        <v>1356.791087284248</v>
       </c>
       <c r="O39" t="n">
-        <v>2323.251080710519</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
         <v>2323.251080710519</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149476019</v>
       </c>
       <c r="C40" t="n">
-        <v>847.8549404312371</v>
+        <v>326.159532019695</v>
       </c>
       <c r="D40" t="n">
-        <v>697.7383010189012</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E40" t="n">
-        <v>549.825207436508</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385977</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
         <v>93.84834815160703</v>
@@ -7330,52 +7330,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117252</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L40" t="n">
-        <v>820.22101609486</v>
+        <v>820.2210160948594</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.45060813932</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782262</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335696</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294198</v>
       </c>
       <c r="S40" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033128</v>
       </c>
       <c r="T40" t="n">
-        <v>2252.410039261034</v>
+        <v>1958.70418174751</v>
       </c>
       <c r="U40" t="n">
-        <v>1963.333825575761</v>
+        <v>1669.627968062237</v>
       </c>
       <c r="V40" t="n">
-        <v>1708.649337369874</v>
+        <v>1414.94347985635</v>
       </c>
       <c r="W40" t="n">
-        <v>1419.232167332914</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.232167332914</v>
+        <v>897.5367589213718</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.439588189384</v>
+        <v>676.7441797778416</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831372</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160714</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507204</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384027</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944178</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883216</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>238.7141959544578</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>729.4465287982094</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>495.0957149476012</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773694</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F43" t="n">
-        <v>117.1600804794591</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>432.4591980117249</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>820.2210160948594</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2361.553154294197</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2178.382964033127</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>897.5367589213713</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>676.7441797778409</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160691</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111727</v>
+        <v>373.3442236507203</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384025</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944178</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883216</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.583449151118</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034532</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>241.4963299034532</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>241.4963299034532</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>833.5146841555811</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1455.610647554918</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536383</v>
+        <v>576.8886734028454</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257314</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133955</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>820.2210160948592</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2361.553154294197</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2178.382964033127</v>
       </c>
       <c r="T46" t="n">
-        <v>2110.486554626058</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U46" t="n">
-        <v>1821.411327970256</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V46" t="n">
-        <v>1566.726839764369</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W46" t="n">
-        <v>1277.309669727408</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>897.5367589213713</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>758.5371382330851</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,7 +8225,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>32.86979469803862</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>19.13493301302731</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>22.23989091247307</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.738149607862</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9404,19 +9404,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>161.8544041422903</v>
       </c>
       <c r="N20" t="n">
-        <v>71.00061210864362</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>169.5026663584963</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>216.9877583263345</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>287.4531532182702</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5527993712922</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>287.4531532182687</v>
       </c>
       <c r="M29" t="n">
-        <v>246.9329946703983</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>75.13816255836588</v>
       </c>
       <c r="L32" t="n">
-        <v>312.6494145433803</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K35" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782908266</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782908534</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>51.31264782908534</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782908625</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.537044377340463</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.6432736947496</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973657044</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.53704437733974</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.91117566373688</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>53.73645647354638</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590289</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>146.9013840666636</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143171</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>3.556976973656958</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>211.4816629500001</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270147</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>69.07179951320087</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6332368114362</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2646978620938</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>26.41766529238435</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.99856860385384</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8715985455489</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>147.9787513947084</v>
       </c>
       <c r="C31" t="n">
-        <v>69.99764814609824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2646978620939</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>84.54672633134467</v>
+        <v>84.28234746704</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.9275756493162</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8715985455489</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.180078975497651</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>50.9552970264351</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6332368114362</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2646978620939</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>84.54672633134467</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.28071285377514</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>182.9275756493162</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.34368079027514</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>210.4824116583052</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>64.04844901173648</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>42.24955898884572</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>162.7796056151008</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>142.4141550350962</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>65.31997266427152</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>80.97502887069157</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1036678.525914489</v>
+        <v>1036856.366307121</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1036678.525914489</v>
+        <v>1036856.366307121</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1034136.858332685</v>
+        <v>1034075.957175585</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1034136.858332685</v>
+        <v>1034075.957175585</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1034136.858332684</v>
+        <v>1034075.957175585</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1033381.522359844</v>
+        <v>1033505.188765509</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1033381.522359844</v>
+        <v>1033505.188765509</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="E2" t="n">
-        <v>377169.5818947266</v>
+        <v>377227.697542634</v>
       </c>
       <c r="F2" t="n">
-        <v>377169.5818947266</v>
+        <v>377227.697542634</v>
       </c>
       <c r="G2" t="n">
-        <v>377227.697542634</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="H2" t="n">
         <v>377227.6975426339</v>
       </c>
       <c r="I2" t="n">
-        <v>377227.6975426339</v>
+        <v>377227.6975426342</v>
       </c>
       <c r="J2" t="n">
-        <v>382053.5066750427</v>
+        <v>382161.5767240625</v>
       </c>
       <c r="K2" t="n">
-        <v>382053.5066750426</v>
+        <v>382161.5767240625</v>
       </c>
       <c r="L2" t="n">
-        <v>382053.5066750426</v>
+        <v>382161.5767240624</v>
       </c>
       <c r="M2" t="n">
-        <v>383174.4141313162</v>
+        <v>383174.414131316</v>
       </c>
       <c r="N2" t="n">
-        <v>383174.414131316</v>
+        <v>383174.4141313158</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.634852753</v>
+        <v>383174.4141313159</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527531</v>
+        <v>383174.4141313158</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727259.158057492</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>108.5551453729543</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>332929.1637953245</v>
+        <v>336433.9864356427</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.852273563058889e-10</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>164099.3869324109</v>
+        <v>160866.4619420267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6729.1604150976</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25068.69066685689</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25068.69066685688</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>9421.45671997703</v>
+        <v>9070.556508370606</v>
       </c>
       <c r="K4" t="n">
-        <v>9421.456719977235</v>
+        <v>9070.556508370581</v>
       </c>
       <c r="L4" t="n">
-        <v>9421.456719977228</v>
+        <v>9070.55650837061</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855002</v>
+        <v>5781.971894855003</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855</v>
+        <v>5781.971894855037</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894854996</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855051</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96359.43757495096</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96359.43757495096</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26488,16 +26488,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>100073.0573829903</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100073.0573829902</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100073.0573829902</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572386</v>
@@ -26506,10 +26506,10 @@
         <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26528,40 @@
         <v>106071.2566943936</v>
       </c>
       <c r="E6" t="n">
-        <v>-471517.7044045733</v>
+        <v>-471691.1538697059</v>
       </c>
       <c r="F6" t="n">
-        <v>255741.4536529187</v>
+        <v>255686.2601237007</v>
       </c>
       <c r="G6" t="n">
-        <v>255644.9004685536</v>
+        <v>255686.2601237007</v>
       </c>
       <c r="H6" t="n">
-        <v>255753.4556139264</v>
+        <v>255686.2601237006</v>
       </c>
       <c r="I6" t="n">
-        <v>255753.4556139266</v>
+        <v>255686.2601237009</v>
       </c>
       <c r="J6" t="n">
-        <v>-60370.17122324908</v>
+        <v>-63539.87551953189</v>
       </c>
       <c r="K6" t="n">
-        <v>272558.9925720773</v>
+        <v>272894.1109161105</v>
       </c>
       <c r="L6" t="n">
-        <v>272558.9925720752</v>
+        <v>272894.1109161111</v>
       </c>
       <c r="M6" t="n">
-        <v>112363.0158468118</v>
+        <v>115560.0438553315</v>
       </c>
       <c r="N6" t="n">
-        <v>276462.4027792224</v>
+        <v>276426.5057973583</v>
       </c>
       <c r="O6" t="n">
-        <v>270475.3520120778</v>
+        <v>276426.5057973581</v>
       </c>
       <c r="P6" t="n">
-        <v>277204.5124271754</v>
+        <v>276426.5057973579</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,19 +26753,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1307.475412439764</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="K3" t="n">
-        <v>1307.475412439761</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="L3" t="n">
-        <v>1307.475412439761</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716387</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26793,13 +26793,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.116866809491</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.116866809491</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.139693944135</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.139693944135</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.139693944135</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26826,10 +26826,10 @@
         <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217.6987118464656</v>
+        <v>222.5738964663492</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.9237233544128e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50.56563627662626</v>
+        <v>45.69045165673992</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-7.253599555495992e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625286556</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.8295940549355</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3960637954392041</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.9140360937604</v>
+        <v>656.5249766664083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>515.7942520058881</v>
+        <v>516.5793752286795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549355</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3960637954392041</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>31.24313505902137</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>99.40026776156617</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>258.9088560886875</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.93405031343784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>143.5000804901049</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>211.5545800191936</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.88210574939697</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>116.1351621008948</v>
+        <v>154.0383522460834</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.62049154535643</v>
+        <v>96.9082241389418</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.979655970140656e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-5.146906952501608e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.723243935382925e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-2.895907565613612e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.256182562571911</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H26" t="n">
-        <v>53.8298796689396</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I26" t="n">
-        <v>202.6389782435538</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J26" t="n">
-        <v>446.1119247700881</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K26" t="n">
-        <v>668.6061326437573</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L26" t="n">
-        <v>829.4650297430676</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M26" t="n">
-        <v>922.9396663902057</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N26" t="n">
-        <v>937.8737950961133</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O26" t="n">
-        <v>885.6076297395388</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P26" t="n">
-        <v>755.8456227260447</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q26" t="n">
-        <v>567.6085847039378</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R26" t="n">
-        <v>330.1736778961581</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S26" t="n">
-        <v>119.7752601446075</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T26" t="n">
-        <v>23.00893916765855</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4204946050057528</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.812305604115719</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H27" t="n">
-        <v>27.16095149238076</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I27" t="n">
-        <v>96.82718856275612</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J27" t="n">
-        <v>265.7012062204241</v>
+        <v>266.6919265213384</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>455.8189804900475</v>
       </c>
       <c r="L27" t="n">
-        <v>610.6280216304766</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M27" t="n">
-        <v>712.5740997796712</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>731.4338158704298</v>
+        <v>505.6959383875749</v>
       </c>
       <c r="O27" t="n">
-        <v>201.3981589456392</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P27" t="n">
-        <v>537.0270236490796</v>
+        <v>539.0294367432352</v>
       </c>
       <c r="Q27" t="n">
-        <v>358.9883434306311</v>
+        <v>360.3269035549432</v>
       </c>
       <c r="R27" t="n">
-        <v>174.6096409292199</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S27" t="n">
-        <v>52.23734312907921</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T27" t="n">
-        <v>11.3355651323787</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1850201055339289</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.357742547022525</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H28" t="n">
-        <v>20.96247464534574</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I28" t="n">
-        <v>70.90374859591377</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J28" t="n">
-        <v>166.6923980744925</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K28" t="n">
-        <v>273.9268159177078</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L28" t="n">
-        <v>350.5320146727852</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M28" t="n">
-        <v>369.5868612573581</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N28" t="n">
-        <v>360.7989117639108</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O28" t="n">
-        <v>333.2561920100566</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P28" t="n">
-        <v>285.1582440507969</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.4287872784043</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R28" t="n">
-        <v>106.0126785233946</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S28" t="n">
-        <v>41.08902238765616</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T28" t="n">
-        <v>10.0739908827326</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1286041389285015</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.256182562571899</v>
+        <v>5.275781294712147</v>
       </c>
       <c r="H29" t="n">
-        <v>53.82987966893948</v>
+        <v>54.0305951844708</v>
       </c>
       <c r="I29" t="n">
-        <v>202.6389782435533</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J29" t="n">
-        <v>446.1119247700871</v>
+        <v>447.7753426620756</v>
       </c>
       <c r="K29" t="n">
-        <v>668.6061326437558</v>
+        <v>671.0991648672409</v>
       </c>
       <c r="L29" t="n">
-        <v>829.4650297430657</v>
+        <v>832.557856665288</v>
       </c>
       <c r="M29" t="n">
-        <v>922.9396663902037</v>
+        <v>926.3810322651251</v>
       </c>
       <c r="N29" t="n">
-        <v>937.8737950961112</v>
+        <v>941.3708458687261</v>
       </c>
       <c r="O29" t="n">
-        <v>885.6076297395368</v>
+        <v>888.9097956194321</v>
       </c>
       <c r="P29" t="n">
-        <v>755.8456227260428</v>
+        <v>758.6639449062258</v>
       </c>
       <c r="Q29" t="n">
-        <v>567.6085847039366</v>
+        <v>569.7250272893468</v>
       </c>
       <c r="R29" t="n">
-        <v>330.1736778961574</v>
+        <v>331.4047967539622</v>
       </c>
       <c r="S29" t="n">
-        <v>119.7752601446073</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T29" t="n">
-        <v>23.0089391676585</v>
+        <v>23.09473261760244</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4204946050057519</v>
+        <v>0.4220625035769717</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.812305604115712</v>
+        <v>2.822791850279242</v>
       </c>
       <c r="H30" t="n">
-        <v>27.1609514923807</v>
+        <v>27.26222655401269</v>
       </c>
       <c r="I30" t="n">
-        <v>96.82718856275589</v>
+        <v>97.18822817847392</v>
       </c>
       <c r="J30" t="n">
-        <v>265.7012062204236</v>
+        <v>266.6919265213385</v>
       </c>
       <c r="K30" t="n">
-        <v>454.1256816961762</v>
+        <v>455.8189804900477</v>
       </c>
       <c r="L30" t="n">
-        <v>610.6280216304752</v>
+        <v>612.9048708248855</v>
       </c>
       <c r="M30" t="n">
-        <v>331.621587911647</v>
+        <v>715.2310753975079</v>
       </c>
       <c r="N30" t="n">
-        <v>731.4338158704281</v>
+        <v>734.161113726793</v>
       </c>
       <c r="O30" t="n">
-        <v>669.1190443266011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>266.4849645283715</v>
       </c>
       <c r="Q30" t="n">
-        <v>358.9883434306303</v>
+        <v>360.3269035549433</v>
       </c>
       <c r="R30" t="n">
-        <v>174.6096409292195</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S30" t="n">
-        <v>52.23734312907909</v>
+        <v>52.4321205523359</v>
       </c>
       <c r="T30" t="n">
-        <v>11.33556513237868</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1850201055339285</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.357742547022519</v>
+        <v>2.366533863550184</v>
       </c>
       <c r="H31" t="n">
-        <v>20.96247464534569</v>
+        <v>21.04063744138256</v>
       </c>
       <c r="I31" t="n">
-        <v>70.90374859591361</v>
+        <v>71.16812746021829</v>
       </c>
       <c r="J31" t="n">
-        <v>166.6923980744921</v>
+        <v>167.313944152998</v>
       </c>
       <c r="K31" t="n">
-        <v>273.9268159177072</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L31" t="n">
-        <v>350.5320146727844</v>
+        <v>351.8390436772702</v>
       </c>
       <c r="M31" t="n">
-        <v>369.5868612573573</v>
+        <v>370.9649400835984</v>
       </c>
       <c r="N31" t="n">
-        <v>360.79891176391</v>
+        <v>362.1442229558207</v>
       </c>
       <c r="O31" t="n">
-        <v>333.2561920100559</v>
+        <v>334.4988046407116</v>
       </c>
       <c r="P31" t="n">
-        <v>285.1582440507962</v>
+        <v>286.2215138242876</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.4287872784039</v>
+        <v>198.1649401560068</v>
       </c>
       <c r="R31" t="n">
-        <v>106.0126785233943</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S31" t="n">
-        <v>41.08902238765607</v>
+        <v>41.24223105841547</v>
       </c>
       <c r="T31" t="n">
-        <v>10.07399088273258</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1286041389285012</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.256182562571899</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H32" t="n">
-        <v>53.82987966893948</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I32" t="n">
-        <v>202.6389782435533</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J32" t="n">
-        <v>446.1119247700871</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K32" t="n">
-        <v>668.6061326437558</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L32" t="n">
-        <v>829.4650297430657</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M32" t="n">
-        <v>922.9396663902037</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N32" t="n">
-        <v>937.8737950961112</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O32" t="n">
-        <v>885.6076297395368</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P32" t="n">
-        <v>755.8456227260428</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q32" t="n">
-        <v>567.6085847039366</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R32" t="n">
-        <v>330.1736778961574</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S32" t="n">
-        <v>119.7752601446073</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T32" t="n">
-        <v>23.0089391676585</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4204946050057519</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.812305604115712</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H33" t="n">
-        <v>27.1609514923807</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I33" t="n">
-        <v>96.82718856275589</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J33" t="n">
-        <v>265.7012062204236</v>
+        <v>266.6919265213384</v>
       </c>
       <c r="K33" t="n">
-        <v>454.1256816961762</v>
+        <v>455.8189804900475</v>
       </c>
       <c r="L33" t="n">
-        <v>610.6280216304752</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M33" t="n">
-        <v>712.5740997796696</v>
+        <v>539.0690173806272</v>
       </c>
       <c r="N33" t="n">
-        <v>731.4338158704281</v>
+        <v>734.1611137267927</v>
       </c>
       <c r="O33" t="n">
-        <v>507.1731018031875</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>174.6096409292195</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S33" t="n">
-        <v>52.23734312907909</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T33" t="n">
-        <v>11.33556513237868</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1850201055339285</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.357742547022519</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H34" t="n">
-        <v>20.96247464534569</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I34" t="n">
-        <v>70.90374859591361</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J34" t="n">
-        <v>166.6923980744921</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K34" t="n">
-        <v>273.9268159177072</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L34" t="n">
-        <v>350.5320146727844</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M34" t="n">
-        <v>369.5868612573573</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N34" t="n">
-        <v>360.79891176391</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O34" t="n">
-        <v>333.2561920100559</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P34" t="n">
-        <v>285.1582440507962</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.4287872784039</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R34" t="n">
-        <v>106.0126785233943</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S34" t="n">
-        <v>41.08902238765607</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T34" t="n">
-        <v>10.07399088273258</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1286041389285012</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,7 +33743,7 @@
         <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>490.9719254784706</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
         <v>759.7214730927647</v>
@@ -33752,13 +33752,13 @@
         <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>201.1867228707697</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862166</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704061</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173582</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848227</v>
       </c>
       <c r="L39" t="n">
-        <v>610.6482255705093</v>
+        <v>634.2436048745728</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927647</v>
+        <v>428.3656332688729</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426213</v>
+        <v>694.996724242621</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982457</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H40" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R40" t="n">
         <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T40" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>284.1705781691577</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745728</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504305</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>694.996724242621</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982457</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.977002173582</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>173.3851399586643</v>
+        <v>740.1323715504305</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927642</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>559.4959520157721</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982457</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>370.0610812534391</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>571.4367684259388</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>421.0018771318449</v>
+        <v>682.0775889879218</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>741.2912249487529</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>431.5324544115815</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230594</v>
+        <v>700.775519972517</v>
       </c>
       <c r="N20" t="n">
-        <v>623.3024475215551</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>677.5556672467154</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>615.7497445457061</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>434.1626354154756</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K26" t="n">
-        <v>448.5162815987767</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L26" t="n">
-        <v>593.6986147730804</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M26" t="n">
-        <v>692.593433162933</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N26" t="n">
-        <v>708.4607314995224</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O26" t="n">
-        <v>655.509418317852</v>
+        <v>946.2647374160152</v>
       </c>
       <c r="P26" t="n">
-        <v>524.6126269707752</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q26" t="n">
-        <v>488.8556942007805</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R26" t="n">
-        <v>114.588140082026</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>138.8635795537574</v>
+        <v>139.8542998546717</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>317.9775415156885</v>
       </c>
       <c r="L27" t="n">
-        <v>472.0736418506024</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M27" t="n">
-        <v>570.4400658576528</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>600.0921037870966</v>
+        <v>374.3542263042416</v>
       </c>
       <c r="O27" t="n">
-        <v>58.80191450119472</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P27" t="n">
-        <v>403.0526162347494</v>
+        <v>405.055029328905</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.0065693446095</v>
+        <v>220.3451294689217</v>
       </c>
       <c r="R27" t="n">
-        <v>28.93013696525591</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.33321795781973</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K28" t="n">
-        <v>251.657324091825</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L28" t="n">
-        <v>378.1220399331014</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M28" t="n">
-        <v>409.1707382191987</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N28" t="n">
-        <v>404.9310841431394</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O28" t="n">
-        <v>357.8413199240963</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P28" t="n">
-        <v>282.4368033156904</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.26674402671</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.0660202434008</v>
+        <v>266.7294381353893</v>
       </c>
       <c r="K29" t="n">
-        <v>448.5162815987753</v>
+        <v>451.0093138222604</v>
       </c>
       <c r="L29" t="n">
-        <v>593.6986147730784</v>
+        <v>884.2445949135695</v>
       </c>
       <c r="M29" t="n">
-        <v>939.5264278333293</v>
+        <v>696.0347990378524</v>
       </c>
       <c r="N29" t="n">
-        <v>708.4607314995203</v>
+        <v>711.9577822721351</v>
       </c>
       <c r="O29" t="n">
-        <v>655.5094183178501</v>
+        <v>658.8115841977453</v>
       </c>
       <c r="P29" t="n">
-        <v>524.6126269707734</v>
+        <v>527.4309491509562</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.3028948294871</v>
+        <v>347.4193374148973</v>
       </c>
       <c r="R29" t="n">
-        <v>180.3045599550077</v>
+        <v>115.8192589398301</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>138.8635795537569</v>
+        <v>139.8542998546718</v>
       </c>
       <c r="K30" t="n">
-        <v>316.2842427218172</v>
+        <v>317.9775415156887</v>
       </c>
       <c r="L30" t="n">
-        <v>472.0736418506011</v>
+        <v>474.3504910450113</v>
       </c>
       <c r="M30" t="n">
-        <v>189.4875539896287</v>
+        <v>573.0970414754895</v>
       </c>
       <c r="N30" t="n">
-        <v>600.0921037870949</v>
+        <v>602.8194016434597</v>
       </c>
       <c r="O30" t="n">
-        <v>526.5227998821566</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>132.5105571140413</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.0065693446087</v>
+        <v>220.3451294689218</v>
       </c>
       <c r="R30" t="n">
-        <v>28.93013696525551</v>
+        <v>29.58120407354906</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.33321795781933</v>
+        <v>73.95476403632523</v>
       </c>
       <c r="K31" t="n">
-        <v>251.6573240918243</v>
+        <v>252.6787152302203</v>
       </c>
       <c r="L31" t="n">
-        <v>378.1220399331006</v>
+        <v>379.4290689375863</v>
       </c>
       <c r="M31" t="n">
-        <v>409.1707382191979</v>
+        <v>410.548817045439</v>
       </c>
       <c r="N31" t="n">
-        <v>404.9310841431386</v>
+        <v>406.2763953350493</v>
       </c>
       <c r="O31" t="n">
-        <v>357.8413199240956</v>
+        <v>359.0839325547513</v>
       </c>
       <c r="P31" t="n">
-        <v>282.4368033156897</v>
+        <v>283.5000730891811</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.2667440267095</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.0660202434008</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K32" t="n">
-        <v>448.5162815987753</v>
+        <v>526.147476380626</v>
       </c>
       <c r="L32" t="n">
-        <v>906.3480293164587</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M32" t="n">
-        <v>692.593433162931</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N32" t="n">
-        <v>708.4607314995203</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O32" t="n">
-        <v>655.5094183178501</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P32" t="n">
-        <v>524.6126269707734</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.3028948294871</v>
+        <v>559.7343280748019</v>
       </c>
       <c r="R32" t="n">
-        <v>114.5881400820252</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>138.8635795537569</v>
+        <v>139.8542998546717</v>
       </c>
       <c r="K33" t="n">
-        <v>316.2842427218172</v>
+        <v>317.9775415156885</v>
       </c>
       <c r="L33" t="n">
-        <v>472.0736418506011</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M33" t="n">
-        <v>570.4400658576512</v>
+        <v>396.9349834586088</v>
       </c>
       <c r="N33" t="n">
-        <v>600.0921037870949</v>
+        <v>602.8194016434594</v>
       </c>
       <c r="O33" t="n">
-        <v>364.5768573587431</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>28.93013696525551</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.33321795781933</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K34" t="n">
-        <v>251.6573240918243</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L34" t="n">
-        <v>378.1220399331006</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M34" t="n">
-        <v>409.1707382191979</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N34" t="n">
-        <v>404.9310841431386</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O34" t="n">
-        <v>357.8413199240956</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P34" t="n">
-        <v>282.4368033156897</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.2667440267095</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607207</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K35" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
         <v>625.7775560664402</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>348.8378915564522</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
         <v>628.3797610094314</v>
@@ -37400,13 +37400,13 @@
         <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>61.20494878474815</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898034</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664397</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020587</v>
       </c>
       <c r="N38" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554558</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870094</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845844</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069153</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104637</v>
       </c>
       <c r="L39" t="n">
-        <v>472.0938457906351</v>
+        <v>495.6892250946987</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094314</v>
+        <v>297.0239211855396</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981765</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839154</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642061</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883432</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044801</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664397</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020587</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554558</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845844</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>146.3291391947987</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946987</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284122</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>552.4004797981765</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839154</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>35.68303457970751</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664397</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020587</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>796.0449487554567</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845844</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069153</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>31.25110603664601</v>
+        <v>597.9983376284122</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094309</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>416.8997075713277</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839154</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>35.68303457970751</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
